--- a/testing/results_new_dataset/LLAMA_7B/new shit/BASELINE_LLAMA_7B.xlsx
+++ b/testing/results_new_dataset/LLAMA_7B/new shit/BASELINE_LLAMA_7B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="286">
   <si>
     <t>Statement</t>
   </si>
@@ -863,6 +863,15 @@
   </si>
   <si>
     <t>There is not enough information available to verify or deny this claim. While Dick Cheney was a prominent figure in the US government, and Margaret Thatcher was a notable British Prime Minister during the same period, there is no publicly available record of such an exchange between them regarding George H.W. Bush's decision-making style. The phrase 'go wobbly' is often associated with George H.W. Bush's tendency to compromise or show weakness in his decision-making, but without further context or evidence, it is impossible to determine the accuracy of this specific claim.</t>
+  </si>
+  <si>
+    <t>Perry pushed for a law that lets insurance companies raise homeowners’ rates without having to justify the increase.</t>
+  </si>
+  <si>
+    <t>Back to Basics</t>
+  </si>
+  <si>
+    <t>While the claim mentions Back to Basics, it does not provide any specific information about the context or details of the alleged law. It is unclear what 'Back to Basics' refers to - a political campaign, an organization, or something else. Furthermore, there is no mention of the jurisdiction (state, country) where this supposed law was proposed. Without more context or specifics, it's impossible to verify or debunk this claim accurately.</t>
   </si>
 </sst>
 </file>
@@ -880,7 +889,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1247,7 +1256,7 @@
     <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3248,12 +3257,24 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="A101" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
